--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD861D1A-562C-45AD-B159-E37591933DB3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB1C1002-0F7A-4E63-A92C-378405F2317A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB1C1002-0F7A-4E63-A92C-378405F2317A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C414B28B-537F-4D37-9F50-666B223B6C8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>caseid</t>
   </si>
@@ -84,6 +84,50 @@
   </si>
   <si>
     <t>用户报名已满额赛事场次-000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_2</t>
+  </si>
+  <si>
+    <t>match_apple_3</t>
+  </si>
+  <si>
+    <t>match_apple_4</t>
+  </si>
+  <si>
+    <t>match_apple_5</t>
+  </si>
+  <si>
+    <t>"code":"000001"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":"000006"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":"000007"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":"000008"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDBdelete_t_apply_question
+preDBdelete_t_apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDBdelete_t_apply_question
+preDBdelete_t_apply
+preInterfaceUserAlertMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceUserAlertMatch
+preInterfaceUserMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,62 +143,62 @@
 "country": "黄浦区"
 "group": "幼儿园"
 "school": "文庙路幼儿园"
-"nationality": ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_apple_2</t>
-  </si>
-  <si>
-    <t>match_apple_3</t>
-  </si>
-  <si>
-    <t>match_apple_4</t>
-  </si>
-  <si>
-    <t>match_apple_5</t>
-  </si>
-  <si>
-    <t>preInterfaceUserMatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":"000001"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":"000006"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":"000007"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":"000008"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply
-preDBupdate_t_match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply
-preDBupdate_t_match_end_del_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply
-preDBupdate_t_match_start_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply</t>
+"nationality": ""
+"sign":"start"
+"reqjsonfile":"competitionLabAlertReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchId": 22
+"subMatchName": "自动化测试专用-勿动"
+"phoneNo":"18916899938"
+"subjectIdList": [1, 4, 6]
+"contactName": "李陶军"
+"contactPhone": "18916899938"
+"studentName": "李陶军"
+"province": "上海"
+"city": "上海市"
+"country": "黄浦区"
+"group": "幼儿园"
+"school": "文庙路幼儿园"
+"nationality": ""
+"sign":"end"
+"reqjsonfile":"competitionLabAlertReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchId": 22
+"subMatchName": "自动化测试专用-勿动"
+"phoneNo":"18916899938"
+"subjectIdList": [1, 4, 6]
+"contactName": "李陶军"
+"contactPhone": "18916899938"
+"studentName": "李陶军"
+"province": "上海"
+"city": "上海市"
+"country": "黄浦区"
+"group": "幼儿园"
+"school": "文庙路幼儿园"
+"nationality": ""
+"sign":"notStart"
+"reqjsonfile":"competitionLabAlertReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchId": 22
+"subMatchName": "自动化测试专用-勿动"
+"phoneNo":"18916899938"
+"subjectIdList": [1, 4, 6]
+"contactName": "李陶军"
+"contactPhone": "18916899938"
+"studentName": "李陶军"
+"province": "上海"
+"city": "上海市"
+"country": "黄浦区"
+"group": "幼儿园"
+"school": "文庙路幼儿园"
+"nationality": ""
+"reqjsonfile":"competitionLabAlertReq"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +223,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.3"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -543,7 +587,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -609,7 +653,7 @@
     </row>
     <row r="3" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -617,22 +661,22 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -641,21 +685,21 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -664,21 +708,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -687,16 +731,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C414B28B-537F-4D37-9F50-666B223B6C8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A08A0D89-9ED2-4B21-9105-68FC89B78A25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A08A0D89-9ED2-4B21-9105-68FC89B78A25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{422DCFA2-2803-40EA-B307-DF3F5DB9D9DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>caseid</t>
   </si>
@@ -112,11 +112,6 @@
   </si>
   <si>
     <t>"code":"000008"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,7 +140,8 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"start"
-"reqjsonfile":"competitionLabAlertReq"</t>
+"reqjsonfile":"competitionLabAlertReq"
+"limitCount" :30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,7 +159,8 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"end"
-"reqjsonfile":"competitionLabAlertReq"</t>
+"reqjsonfile":"competitionLabAlertReq"
+"limitCount" :30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,7 +178,8 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"notStart"
-"reqjsonfile":"competitionLabAlertReq"</t>
+"reqjsonfile":"competitionLabAlertReq"
+"limitCount" :30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,7 +196,9 @@
 "group": "幼儿园"
 "school": "文庙路幼儿园"
 "nationality": ""
-"reqjsonfile":"competitionLabAlertReq"</t>
+"reqjsonfile":"competitionLabAlertReq"
+"limitCount" :2
+"sign":"start"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -662,13 +662,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -685,13 +685,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -708,13 +708,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{422DCFA2-2803-40EA-B307-DF3F5DB9D9DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD0C079C-41C9-40A2-AE0A-F1F353AC81E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
   </si>
   <si>
     <t>"matchId": 22
-"subMatchName": "自动化测试专用-勿动"
+"subMatchName": "自动化测试专用-已结束-勿动"
 "phoneNo":"18916899938"
 "subjectIdList": [1, 4, 6]
 "contactName": "李陶军"
@@ -165,7 +165,7 @@
   </si>
   <si>
     <t>"matchId": 22
-"subMatchName": "自动化测试专用-勿动"
+"subMatchName": "自动化测试专用-未开始-勿动"
 "phoneNo":"18916899938"
 "subjectIdList": [1, 4, 6]
 "contactName": "李陶军"
@@ -184,7 +184,7 @@
   </si>
   <si>
     <t>"matchId": 22
-"subMatchName": "自动化测试专用-勿动"
+"subMatchName": "自动化测试专用-已满额-勿动"
 "phoneNo":"18916899938"
 "subjectIdList": [1, 4, 6]
 "contactName": "李陶军"
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD0C079C-41C9-40A2-AE0A-F1F353AC81E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6EB149D4-74DE-4F78-B80C-A2566A6A31BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>caseid</t>
   </si>
@@ -64,26 +64,6 @@
   </si>
   <si>
     <t>userMatchAppleTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户提交报名信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已报名用户再次报名-000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户报名已结束赛事场次-000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户报名未开始赛事场次-000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户报名已满额赛事场次-000008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,6 +103,30 @@
   <si>
     <t>preInterfaceUserAlertMatch
 preInterfaceUserMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子赛-微信用户提交报名信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子赛-已报名用户再次报名-000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子赛-用户报名已结束赛事场次-000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子赛-用户报名未开始赛事场次-000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子赛-用户报名已满额赛事场次-000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国赛-微信用户提交报名信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,7 +144,7 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"start"
-"reqjsonfile":"competitionLabAlertReq"
+"reqjsonfile":"userMatchAppleReq"
 "limitCount" :30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,7 +163,7 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"end"
-"reqjsonfile":"competitionLabAlertReq"
+"reqjsonfile":"userMatchAppleReq"
 "limitCount" :30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,7 +182,7 @@
 "school": "文庙路幼儿园"
 "nationality": ""
 "sign":"notStart"
-"reqjsonfile":"competitionLabAlertReq"
+"reqjsonfile":"userMatchAppleReq"
 "limitCount" :30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,9 +200,111 @@
 "group": "幼儿园"
 "school": "文庙路幼儿园"
 "nationality": ""
-"reqjsonfile":"competitionLabAlertReq"
+"reqjsonfile":"userMatchAppleReq"
 "limitCount" :2
 "sign":"start"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDBdelete_t_apply_question
+preDBdelete_t_apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_6</t>
+  </si>
+  <si>
+    <t>"matchId": 200
+"contactName": "曹操"
+"contactPhone": "18916899938"
+"country": "北京市"
+"school": "李老师"
+"email": "li.taojun@opg.cn"
+"schoolEn": "litaojun"
+"detailAddress": "鹤永路599弄41号1201室"
+"postCode": "200100"
+"subMatchName": "国赛-正常-自动化测试-勿动"
+"phoneNo":"18916899938"
+"reqjsonfile":"userMatchAppleReqGuosai"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_7</t>
+  </si>
+  <si>
+    <t>match_apple_8</t>
+  </si>
+  <si>
+    <t>match_apple_9</t>
+  </si>
+  <si>
+    <t>match_apple_10</t>
+  </si>
+  <si>
+    <t>国赛-已报名用户再次报名-000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国赛-用户报名已结束赛事场次-000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国赛-用户报名未开始赛事场次-000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国赛-用户报名已满额赛事场次-000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchId": 200
+"contactName": "曹操"
+"contactPhone": "18916899938"
+"country": "北京市"
+"school": "李老师"
+"email": "li.taojun@opg.cn"
+"schoolEn": "litaojun"
+"detailAddress": "鹤永路599弄41号1201室"
+"postCode": "200100"
+"subMatchName": "国赛-已结束-自动化测试-勿动"
+"phoneNo":"18916899938"
+"reqjsonfile":"userMatchAppleReqGuosai"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchId": 200
+"contactName": "曹操"
+"contactPhone": "18916899938"
+"country": "北京市"
+"school": "李老师"
+"email": "li.taojun@opg.cn"
+"schoolEn": "litaojun"
+"detailAddress": "鹤永路599弄41号1201室"
+"postCode": "200100"
+"subMatchName": "国赛-未开始-自动化测试-勿动"
+"phoneNo":"18916899938"
+"reqjsonfile":"userMatchAppleReqGuosai"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchId": 200
+"contactName": "曹操"
+"contactPhone": "18916899938"
+"country": "北京市"
+"school": "李老师"
+"email": "li.taojun@opg.cn"
+"schoolEn": "litaojun"
+"detailAddress": "鹤永路599弄41号1201室"
+"postCode": "200100"
+"subMatchName": "国赛-已满员-自动化测试-勿动"
+"phoneNo":"18916899938"
+"reqjsonfile":"userMatchAppleReqGuosai"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDBdelete_t_apply_question
+preDBdelete_t_apply
+preInterfaceUserMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,17 +690,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="35.25" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="6" width="70.125" customWidth="1"/>
@@ -628,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -636,111 +742,226 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6EB149D4-74DE-4F78-B80C-A2566A6A31BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F49FF2ED-CDE0-4718-9C5B-8975227363F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match_apple_6</t>
-  </si>
-  <si>
     <t>"matchId": 200
 "contactName": "曹操"
 "contactPhone": "18916899938"
@@ -229,9 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match_apple_7</t>
-  </si>
-  <si>
     <t>match_apple_8</t>
   </si>
   <si>
@@ -305,6 +299,14 @@
     <t>preDBdelete_t_apply_question
 preDBdelete_t_apply
 preInterfaceUserMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +695,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,9 +851,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -866,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -874,22 +876,22 @@
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -897,13 +899,13 @@
     </row>
     <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
@@ -912,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -920,13 +922,13 @@
     </row>
     <row r="10" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -935,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -943,13 +945,13 @@
     </row>
     <row r="11" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -958,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F49FF2ED-CDE0-4718-9C5B-8975227363F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AAE8E99A-09D1-4748-81A8-60D734F7FC6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AAE8E99A-09D1-4748-81A8-60D734F7FC6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C9602E3-311B-45B1-B7DA-C48E308A1063}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>caseid</t>
   </si>
@@ -92,17 +92,6 @@
   </si>
   <si>
     <t>"code":"000008"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply
-preInterfaceUserAlertMatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preInterfaceUserAlertMatch
-preInterfaceUserMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,11 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"matchId": 200
 "contactName": "曹操"
 "contactPhone": "18916899938"
@@ -296,17 +280,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preDBdelete_t_apply_question
-preDBdelete_t_apply
+    <t>match_apple_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_apple_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceUserCancelMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceUserMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceUserCancelMatch
 preInterfaceUserMatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_apple_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_apple_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,16 +735,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -767,16 +758,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -790,16 +781,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -813,16 +804,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -836,16 +827,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -853,22 +844,22 @@
     </row>
     <row r="7" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -876,22 +867,22 @@
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -899,22 +890,22 @@
     </row>
     <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -922,22 +913,22 @@
     </row>
     <row r="10" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -945,22 +936,22 @@
     </row>
     <row r="11" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>

--- a/steamcase/user/userMatchApplecase.xlsx
+++ b/steamcase/user/userMatchApplecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C9602E3-311B-45B1-B7DA-C48E308A1063}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAA027A3-48BC-43C1-955B-2A88606F1BBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
